--- a/AVLTreeGUI/runtime_info_final.xlsx
+++ b/AVLTreeGUI/runtime_info_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhiem.tran\source\repos\AVLTreeGUI\AVLTreeGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{60668578-3DF8-457B-83CC-A0506BC407BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E45452E-D5D2-4AC4-98DD-5E3E5A60DAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="runtime_info_final" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Insert</t>
   </si>
@@ -34,11 +34,14 @@
   <si>
     <t>Remove</t>
   </si>
+  <si>
+    <t>Elements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,19 +600,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -617,8 +611,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>AVLTree Runtime</a:t>
+              <a:t>A graph</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> showing the relationship between AVLTree's function and it's runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -635,19 +634,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -660,8 +650,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -678,24 +668,147 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>runtime_info_final!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5682</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12713</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53743</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112677</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233430</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>494058</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1049567</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2128005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4437062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9263885</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19247778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39997631</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84996295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>runtime_info_final!$A$2:$A$25</c:f>
               <c:numCache>
@@ -775,92 +888,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>runtime_info_final!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>668</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1253</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2691</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5682</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12713</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25743</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53743</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>112677</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>233430</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>494058</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1049567</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2128005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4437062</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9263885</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19247778</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39997631</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>84996295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EACB-427B-BCB4-9F7B410B003D}"/>
+              <c16:uniqueId val="{00000001-49A9-4C90-9AC9-AC9CC7F00DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -879,24 +911,147 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>runtime_info_final!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>runtime_info_final!$A$2:$A$25</c:f>
               <c:numCache>
@@ -976,92 +1131,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>runtime_info_final!$C$2:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>767</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EACB-427B-BCB4-9F7B410B003D}"/>
+              <c16:uniqueId val="{00000003-49A9-4C90-9AC9-AC9CC7F00DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1080,24 +1154,147 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>runtime_info_final!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12465</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>187188</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>378705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>763889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1516799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3071306</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6130697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12328140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24544542</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49254830</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99478424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>runtime_info_final!$A$2:$A$25</c:f>
               <c:numCache>
@@ -1177,92 +1374,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>runtime_info_final!$D$2:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2742</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6383</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12465</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26270</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>46559</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>93199</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>187188</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>378705</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>763889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1516799</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3071306</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6130697</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12328140</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24544542</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49254830</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>99478424</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EACB-427B-BCB4-9F7B410B003D}"/>
+              <c16:uniqueId val="{00000005-49A9-4C90-9AC9-AC9CC7F00DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1281,24 +1397,147 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>runtime_info_final!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5042</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11080</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>163400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>330460</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>670133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1348800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2768922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5751187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14373869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>runtime_info_final!$A$2:$A$25</c:f>
               <c:numCache>
@@ -1378,92 +1617,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>runtime_info_final!$E$2:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>674</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1725</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2521</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5042</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11080</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42844</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>84119</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>163400</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>330460</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>670133</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1348800</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2768922</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5751187</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14373869</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EACB-427B-BCB4-9F7B410B003D}"/>
+              <c16:uniqueId val="{00000007-49A9-4C90-9AC9-AC9CC7F00DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1475,17 +1633,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="782736431"/>
-        <c:axId val="782736847"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="782736431"/>
+        <c:axId val="1710852736"/>
+        <c:axId val="1710864384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1710852736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1493,11 +1664,121 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1710864384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1710864384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1520,133 +1801,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="782736847"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="782736847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100000000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Run time (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1664,7 +1825,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1675,9 +1841,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1687,9 +1851,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="782736431"/>
+        <c:crossAx val="1710852736"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1701,6 +1865,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1716,9 +1896,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1741,28 +1919,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1825,33 +1992,29 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1859,45 +2022,35 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1906,15 +2059,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1926,9 +2086,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -1936,9 +2096,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1946,12 +2106,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1966,9 +2126,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -1979,15 +2139,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2003,16 +2163,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2024,20 +2182,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2048,14 +2206,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2067,13 +2225,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2085,7 +2243,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2093,14 +2251,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2112,14 +2270,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2130,14 +2288,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2149,14 +2307,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2167,9 +2325,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -2178,7 +2334,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -2186,7 +2342,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2194,16 +2350,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2216,17 +2370,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2235,19 +2389,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2256,10 +2400,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2271,9 +2415,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2282,7 +2424,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2290,9 +2432,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2303,10 +2445,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2314,7 +2464,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2330,17 +2480,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A007CFB5-6A74-4327-86B6-FF1DAAE6B560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BFDF4C-3BCD-4616-95F4-97CE2FF8A517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,11 +2809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,6 +2822,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3099,11 +3252,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
